--- a/biology/Botanique/Dactyladenia/Dactyladenia.xlsx
+++ b/biology/Botanique/Dactyladenia/Dactyladenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">
 Dactyladenia Welw. 1859 est un genre de plantes à fleurs de la famille des Chrysobalanacées. Ce sont des arbres originaires principalement d'Afrique[réf. nécessaire]. 
@@ -512,15 +524,86 @@
           <t>Classification</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Ce genre a été décrit en 1859 par le botaniste autrichien Friedrich Martin Josef Welwitsch (1806-1872)[2].
-En classification phylogénétique APG IV (2016)[3], comme en classification phylogénétique APG III (2009)[4] ou en classification classique de Cronquist (1981)[5], ce genre est assigné à la famille des Chrysobalanaceae. 
-Synonymes
-Griffonia Hook.f.
-Acioa subgen. Afracioa Letouzey[6].
-Liste d'espèces
-Selon World Checklist of Selected Plant Families (WCSP)  (21 mars 2019)[7] :
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Ce genre a été décrit en 1859 par le botaniste autrichien Friedrich Martin Josef Welwitsch (1806-1872).
+En classification phylogénétique APG IV (2016), comme en classification phylogénétique APG III (2009) ou en classification classique de Cronquist (1981), ce genre est assigné à la famille des Chrysobalanaceae. 
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>Dactyladenia</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dactyladenia</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>Synonymes</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
+        <is>
+          <t>Griffonia Hook.f.
+Acioa subgen. Afracioa Letouzey.</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Dactyladenia</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/Dactyladenia</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Classification</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Liste d'espèces</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Selon World Checklist of Selected Plant Families (WCSP)  (21 mars 2019) :
 Dactyladenia barteri (Hook.f. ex Oliv.) Prance &amp; F.White (1979)
 Dactyladenia bellayana (Baill.) Prance &amp; F.White (1979)
 Dactyladenia buchneri (Engl.) Prance &amp; Sothers (2002)
